--- a/cout.xlsx
+++ b/cout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aoc2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9732F246-986F-419A-ABA3-9DCB56389DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8261240-7C99-453C-B21F-FA352F8D594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{80031E76-02B7-454D-800A-E4CBC4AC86AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Définition du prompt</t>
   </si>
@@ -47,12 +47,6 @@
     <t>cout ($)</t>
   </si>
   <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
     <t>Day 2</t>
   </si>
   <si>
@@ -84,22 +78,13 @@
   </si>
   <si>
     <t>Day 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825 </t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>0.120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +100,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,6 +397,94 @@
         <a:xfrm>
           <a:off x="5101590" y="2781300"/>
           <a:ext cx="2921000" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C35283-1C9C-9A78-54C8-AD065AA13AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7194551" y="3854450"/>
+          <a:ext cx="4318000" cy="604048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3EC1F8-4E27-47E5-30B6-6D9F03D7EED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="2032000"/>
+          <a:ext cx="4546600" cy="692627"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D4617-8654-4C85-BDC9-4212D81A8619}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,80 +833,92 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="C3" s="1">
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
+      <c r="C4" s="1">
+        <v>0.379</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f>SUM(C3:C15)</f>
+        <v>2.0840000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/cout.xlsx
+++ b/cout.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aoc2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8261240-7C99-453C-B21F-FA352F8D594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B6734-39DD-4F99-8202-2E62A1F1EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{80031E76-02B7-454D-800A-E4CBC4AC86AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{80031E76-02B7-454D-800A-E4CBC4AC86AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cout" sheetId="1" r:id="rId1"/>
+    <sheet name="pépites" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Définition du prompt</t>
   </si>
@@ -78,6 +79,9 @@
   </si>
   <si>
     <t>Day 12</t>
+  </si>
+  <si>
+    <t>Doc markdown</t>
   </si>
 </sst>
 </file>
@@ -157,23 +161,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120651</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="A screenshot of a computer program&#10;&#10;AI-generated content may be incorrect.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7A83AD-958F-BF5B-7B23-477EF3667449}"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C35283-1C9C-9A78-54C8-AD065AA13AF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -182,21 +186,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5530850" y="3368040"/>
-          <a:ext cx="3820795" cy="574675"/>
+          <a:off x="8699501" y="2406650"/>
+          <a:ext cx="4318000" cy="604048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -208,22 +206,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309245</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="A screenshot of a phone&#10;&#10;AI-generated content may be incorrect.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B87B227-8433-C5FF-3162-B0290213893C}"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="A screenshot of a computer program&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7A83AD-958F-BF5B-7B23-477EF3667449}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -245,8 +243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5864225" y="2061210"/>
-          <a:ext cx="2933700" cy="971550"/>
+          <a:off x="6896100" y="3304540"/>
+          <a:ext cx="3820795" cy="574675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -258,22 +256,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>193040</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104140</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="A screenshot of a phone&#10;&#10;AI-generated content may be incorrect.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4324A83D-1776-A496-68E9-042D9286A286}"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="A screenshot of a phone&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B87B227-8433-C5FF-3162-B0290213893C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -295,8 +293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5679440" y="1240790"/>
-          <a:ext cx="2959100" cy="1104900"/>
+          <a:off x="5864225" y="2061210"/>
+          <a:ext cx="2933700" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -307,23 +305,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>103505</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104140</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9E3CE0-30E0-CC0F-AA39-B5651129EE47}"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A screenshot of a phone&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4324A83D-1776-A496-68E9-042D9286A286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -345,8 +343,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5088255" y="558800"/>
-          <a:ext cx="2940050" cy="996950"/>
+          <a:off x="5679440" y="1240790"/>
+          <a:ext cx="2959100" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -358,22 +356,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>97790</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>103505</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="A screenshot of a phone&#10;&#10;AI-generated content may be incorrect.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6F2C10-51BD-35F3-3358-A9775F9F7D26}"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9E3CE0-30E0-CC0F-AA39-B5651129EE47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -395,8 +393,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5101590" y="2781300"/>
-          <a:ext cx="2921000" cy="781050"/>
+          <a:off x="5088255" y="558800"/>
+          <a:ext cx="2940050" cy="996950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,23 +405,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>444501</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>159548</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C35283-1C9C-9A78-54C8-AD065AA13AF5}"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="A screenshot of a phone&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6F2C10-51BD-35F3-3358-A9775F9F7D26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -432,15 +430,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7194551" y="3854450"/>
-          <a:ext cx="4318000" cy="604048"/>
+          <a:off x="6416040" y="2743200"/>
+          <a:ext cx="2921000" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -491,6 +495,427 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520856</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1D4DAB-04E3-456F-9425-95E7FDD2310E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="527050" y="609600"/>
+          <a:ext cx="3041806" cy="1390721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D6B3D5-92BD-E9D3-473C-5FC8711227F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="660400"/>
+          <a:ext cx="882650" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184392</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA29B6B-EFD4-523B-C48C-2C32FCC9E4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="946150"/>
+          <a:ext cx="4718292" cy="4197566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84636791-54F6-B077-459E-5FCC5909768C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="2794000"/>
+          <a:ext cx="920750" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BD14CC-C704-4977-A32D-499867B0635A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="4851400"/>
+          <a:ext cx="4254500" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527587</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3347251-6EE6-988D-C3D9-601730E71684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="5003800"/>
+          <a:ext cx="10446287" cy="5461281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>292425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733E2DFB-EF48-98EA-F26D-344FC3CC1DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6775450" y="5702300"/>
+          <a:ext cx="6318575" cy="5486682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90281AE-6094-41CC-B4C0-4B0B206F6DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="5702300"/>
+          <a:ext cx="1193800" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -813,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5D4617-8654-4C85-BDC9-4212D81A8619}">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,10 +1346,30 @@
         <v>2.0840000000000001</v>
       </c>
     </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060F5B57-82F6-47CD-93B6-7E68C7207CDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/cout.xlsx
+++ b/cout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aoc2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B6734-39DD-4F99-8202-2E62A1F1EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA003BF-6B46-49DE-A778-4B9BA32F4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{80031E76-02B7-454D-800A-E4CBC4AC86AA}"/>
   </bookViews>
@@ -504,23 +504,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>520856</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158821</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>559042</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1D4DAB-04E3-456F-9425-95E7FDD2310E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA29B6B-EFD4-523B-C48C-2C32FCC9E4ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -536,111 +536,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="527050" y="609600"/>
-          <a:ext cx="3041806" cy="1390721"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D6B3D5-92BD-E9D3-473C-5FC8711227F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="660400"/>
-          <a:ext cx="882650" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>184392</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171666</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA29B6B-EFD4-523B-C48C-2C32FCC9E4ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5219700" y="946150"/>
+          <a:off x="2546350" y="317500"/>
           <a:ext cx="4718292" cy="4197566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -652,16 +548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -676,7 +572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="2794000"/>
+          <a:off x="2565400" y="2165350"/>
           <a:ext cx="920750" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -712,16 +608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -736,8 +632,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5391150" y="4851400"/>
-          <a:ext cx="4254500" cy="279400"/>
+          <a:off x="2698750" y="4286250"/>
+          <a:ext cx="4540250" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,7 +693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -841,7 +737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -916,6 +812,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25603</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>25706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA9C432-AA21-B52C-5AD2-142F3D646F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2178050" y="11188700"/>
+          <a:ext cx="3943553" cy="5962956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1363,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060F5B57-82F6-47CD-93B6-7E68C7207CDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/cout.xlsx
+++ b/cout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aoc2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA003BF-6B46-49DE-A778-4B9BA32F4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C165D7-8A6B-4472-8CEB-BE95AC798E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{80031E76-02B7-454D-800A-E4CBC4AC86AA}"/>
   </bookViews>
@@ -581,15 +581,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent3">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -641,15 +641,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent3">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -789,15 +789,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent3">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -856,6 +856,514 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>597253</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>101771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE619B5-5E9E-09AA-C66A-5820A3A08EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="17399000"/>
+          <a:ext cx="6864703" cy="3327571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341C41E1-B4A0-C5C8-14C6-C5B8196EC2DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117600" y="17487900"/>
+          <a:ext cx="850900" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>343168</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542346E3-376B-5ABE-1827-AFA8FD1471CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="2025650"/>
+          <a:ext cx="5219968" cy="4794496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E11B8E-5C7F-4B3D-A992-7AE5CBC0DF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8559800" y="2178050"/>
+          <a:ext cx="920750" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F0EC7A-FF1A-4CA5-844B-6829BAC1EDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9937750" y="2470150"/>
+          <a:ext cx="501650" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BE93F9-F145-4DC7-B198-40A83A5B5725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883900" y="4394200"/>
+          <a:ext cx="501650" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBBD0EE-AA33-4A2E-BFF1-55EAA4B89CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9442450" y="4679950"/>
+          <a:ext cx="501650" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D716775F-C777-4061-9F47-6ED55E75976B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10140950" y="5937250"/>
+          <a:ext cx="501650" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8EA210-13B7-4B11-8C3D-FBC82709F713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="11233150"/>
+          <a:ext cx="990600" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1181,7 +1689,7 @@
   <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1303,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060F5B57-82F6-47CD-93B6-7E68C7207CDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/cout.xlsx
+++ b/cout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aoc2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C165D7-8A6B-4472-8CEB-BE95AC798E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29040573-31B0-42FF-9B68-F147C93890D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{80031E76-02B7-454D-800A-E4CBC4AC86AA}"/>
   </bookViews>
@@ -1334,6 +1334,230 @@
         <a:xfrm>
           <a:off x="2190750" y="11233150"/>
           <a:ext cx="990600" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>482782</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>120844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6B4B7D-09FB-C9CB-CE7C-4B2CBE59BA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="11264900"/>
+          <a:ext cx="3549832" cy="3772094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83CA5BD-369D-45B5-BD49-377A6E2661F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8966200" y="12617450"/>
+          <a:ext cx="514350" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4ED9521-91E5-4C52-9A08-A070B7912157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7588250" y="11601450"/>
+          <a:ext cx="749300" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F113443-ADF2-40C1-975A-F4FE34AA40A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9055100" y="13684250"/>
+          <a:ext cx="514350" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060F5B57-82F6-47CD-93B6-7E68C7207CDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="U75" sqref="U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
